--- a/VulnerabilityMapping/Osiris.xlsx
+++ b/VulnerabilityMapping/Osiris.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC86E934-DF61-4887-B58E-0674D405DF55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84C67C6-0BA6-42D7-B91F-A170386BEDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Original Vulnerability</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +97,10 @@
   </si>
   <si>
     <t>time_dependency</t>
+  </si>
+  <si>
+    <t>money-concurrency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -500,7 +513,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -533,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
